--- a/Data-Adidas/IPI_adidas.xlsx
+++ b/Data-Adidas/IPI_adidas.xlsx
@@ -24,93 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Exchange rate: EUR/USD</t>
   </si>
   <si>
-    <t xml:space="preserve"> ∟ Operating revenue (Turnover)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Costs of goods sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Gross profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Other operating expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Operating P/L [=EBIT]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Financial P/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Financial revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Financial expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ P/L before tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Taxation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ P/L after tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Extr. and other P/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Extr. and other revenue</t>
-  </si>
-  <si>
-    <t>n.a.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Extr. and other expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ P/L for period [=Net income]</t>
-  </si>
-  <si>
-    <t>Memo lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Export revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Material costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Costs of employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Depreciation &amp; Amortization</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Other operating items</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Interest paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Research &amp; Development expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Cash flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Added value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ EBITDA</t>
+    <t>Operating revenue (Turnover)</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Costs of goods sold</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
+  </si>
+  <si>
+    <t>Other operating expenses</t>
+  </si>
+  <si>
+    <t>Operating P/L [=EBIT]</t>
+  </si>
+  <si>
+    <t>Financial revenue</t>
+  </si>
+  <si>
+    <t>Financial expenses</t>
+  </si>
+  <si>
+    <t>P/L before tax</t>
+  </si>
+  <si>
+    <t>Taxation</t>
+  </si>
+  <si>
+    <t>P/L after tax</t>
+  </si>
+  <si>
+    <t>Extr. and other P/L</t>
+  </si>
+  <si>
+    <t>P/L for period [=Net income]</t>
   </si>
 </sst>
 </file>
@@ -118,9 +73,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="170" formatCode="###,##0"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="166" formatCode="###,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -188,27 +143,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -491,498 +451,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
         <v>43830</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>43465</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>43100</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>42735</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="7">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1.1234</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1.145</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1.1993</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1.0541</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="8">
+        <v>1.0887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>26787469.511628199</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>25285047.7412939</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>25601448.004007298</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>20725705.5444717</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="9">
+        <v>18823621.9084263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>26557172.541618299</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>25092687.644362401</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>25446738.358974501</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>20334634.607791901</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="9">
+        <v>18588462.722063102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>11415989.313363999</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>11522140.8060789</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>12048163.519382499</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>10033973.709583299</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="9">
+        <v>9134192.4703121204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>15371480.1982641</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>13762906.935215</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>13553284.4846249</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>10691731.834888499</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="9">
+        <v>9689429.43811417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>12368632.389307</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>11062995.5747128</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>11074332.265377</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>9124285.7894897498</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="9">
+        <v>8550649.3041515406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>3002847.8089570999</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>2699911.3605022398</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>2478952.2192478199</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>1567446.0453987101</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="F8" s="9">
+        <v>1138780.1339626301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <v>-129190.98317623101</v>
-      </c>
-      <c r="C9" s="7">
-        <v>22900.011539459199</v>
-      </c>
-      <c r="D9" s="7">
-        <v>-53968.480825424202</v>
-      </c>
-      <c r="E9" s="7">
-        <v>-45326.281070709199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="6">
+        <v>56169.992685318</v>
+      </c>
+      <c r="C9" s="6">
+        <v>27480.0138473511</v>
+      </c>
+      <c r="D9" s="6">
+        <v>29982.4893474579</v>
+      </c>
+      <c r="E9" s="6">
+        <v>22136.090755462599</v>
+      </c>
+      <c r="F9" s="9">
+        <v>21773.998737335201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
-        <v>56169.992685318</v>
-      </c>
-      <c r="C10" s="7">
-        <v>27480.0138473511</v>
-      </c>
-      <c r="D10" s="7">
-        <v>29982.4893474579</v>
-      </c>
-      <c r="E10" s="7">
-        <v>22136.090755462599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="6">
+        <v>185360.975861549</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4580.0023078918503</v>
+      </c>
+      <c r="D10" s="6">
+        <v>83950.970172882095</v>
+      </c>
+      <c r="E10" s="6">
+        <v>67462.371826171904</v>
+      </c>
+      <c r="F10" s="9">
+        <v>87095.994949340806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
-        <v>185360.975861549</v>
-      </c>
-      <c r="C11" s="7">
-        <v>4580.0023078918503</v>
-      </c>
-      <c r="D11" s="7">
-        <v>83950.970172882095</v>
-      </c>
-      <c r="E11" s="7">
-        <v>67462.371826171904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="6">
+        <v>2873656.8257808699</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2722811.3720416999</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2424983.7384223901</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1522119.7643279999</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1073458.13775063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
-        <v>2873656.8257808699</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2722811.3720416999</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2424983.7384223901</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1522119.7643279999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="6">
+        <v>720099.30622577702</v>
+      </c>
+      <c r="C12" s="6">
+        <v>766005.38599491096</v>
+      </c>
+      <c r="D12" s="6">
+        <v>801132.11536407506</v>
+      </c>
+      <c r="E12" s="6">
+        <v>447992.31290817301</v>
+      </c>
+      <c r="F12" s="9">
+        <v>376690.17815589899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
-        <v>720099.30622577702</v>
-      </c>
-      <c r="C13" s="7">
-        <v>766005.38599491096</v>
-      </c>
-      <c r="D13" s="7">
-        <v>801132.11536407506</v>
-      </c>
-      <c r="E13" s="7">
-        <v>447992.31290817301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="6">
+        <v>2153557.51955509</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1956805.9860467899</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1623851.62305832</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1074127.4514198301</v>
+      </c>
+      <c r="F13" s="9">
+        <v>696767.95959472703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
-        <v>2153557.51955509</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1956805.9860467899</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1623851.62305832</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1074127.4514198301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="6">
+        <v>64033.791661262498</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-9160.0046157836896</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-308219.99049186701</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-1054.0995597839401</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-6532.1996212005597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
-        <v>64033.791661262498</v>
-      </c>
-      <c r="C15" s="7">
-        <v>-9160.0046157836896</v>
-      </c>
-      <c r="D15" s="7">
-        <v>-308219.99049186701</v>
-      </c>
-      <c r="E15" s="7">
-        <v>-1054.0995597839401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="B15" s="6">
         <v>2217591.3112163502</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C15" s="6">
         <v>1947645.9814310099</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D15" s="6">
         <v>1315631.6325664499</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E15" s="6">
         <v>1073073.3518600501</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7">
-        <v>3054524.2022275901</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2840746.4314699201</v>
-      </c>
-      <c r="D22" s="7">
-        <v>3057014.6138668102</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2670034.1849327101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1331228.8266420399</v>
-      </c>
-      <c r="C23" s="7">
-        <v>559905.28213977802</v>
-      </c>
-      <c r="D23" s="7">
-        <v>561272.20058441197</v>
-      </c>
-      <c r="E23" s="7">
-        <v>414261.12699508702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7">
-        <v>180867.376446724</v>
-      </c>
-      <c r="C25" s="7">
-        <v>53815.027117729202</v>
-      </c>
-      <c r="D25" s="7">
-        <v>111534.860372543</v>
-      </c>
-      <c r="E25" s="7">
-        <v>78003.367424011201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7">
-        <v>170756.77776336699</v>
-      </c>
-      <c r="C26" s="7">
-        <v>175185.08827686301</v>
-      </c>
-      <c r="D26" s="7">
-        <v>224269.02031898501</v>
-      </c>
-      <c r="E26" s="7">
-        <v>172872.32780456499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3548820.1378583899</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2507551.2635707902</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1876903.8331508599</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1487334.47885513</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7">
-        <v>7504311.0227584802</v>
-      </c>
-      <c r="C28" s="7">
-        <v>6168118.1081533404</v>
-      </c>
-      <c r="D28" s="7">
-        <v>5846585.4227542896</v>
-      </c>
-      <c r="E28" s="7">
-        <v>4683364.3441200303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7">
-        <v>4334076.6355991401</v>
-      </c>
-      <c r="C29" s="7">
-        <v>3259816.6426420198</v>
-      </c>
-      <c r="D29" s="7">
-        <v>3040224.4198322301</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1981707.1723938</v>
+      <c r="F15" s="9">
+        <v>690235.759973526</v>
       </c>
     </row>
   </sheetData>

--- a/Data-Adidas/IPI_adidas.xlsx
+++ b/Data-Adidas/IPI_adidas.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Exchange rate: EUR/USD</t>
-  </si>
-  <si>
-    <t>Operating revenue (Turnover)</t>
   </si>
   <si>
     <t>Sales</t>
@@ -451,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,24 +498,24 @@
         <v>1.0887</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>26787469.511628199</v>
+        <v>26557172.541618299</v>
       </c>
       <c r="C3" s="6">
-        <v>25285047.7412939</v>
+        <v>25092687.644362401</v>
       </c>
       <c r="D3" s="6">
-        <v>25601448.004007298</v>
+        <v>25446738.358974501</v>
       </c>
       <c r="E3" s="6">
-        <v>20725705.5444717</v>
+        <v>20334634.607791901</v>
       </c>
       <c r="F3" s="9">
-        <v>18823621.9084263</v>
+        <v>18588462.722063102</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -526,19 +523,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>26557172.541618299</v>
+        <v>11415989.313363999</v>
       </c>
       <c r="C4" s="6">
-        <v>25092687.644362401</v>
+        <v>11522140.8060789</v>
       </c>
       <c r="D4" s="6">
-        <v>25446738.358974501</v>
+        <v>12048163.519382499</v>
       </c>
       <c r="E4" s="6">
-        <v>20334634.607791901</v>
+        <v>10033973.709583299</v>
       </c>
       <c r="F4" s="9">
-        <v>18588462.722063102</v>
+        <v>9134192.4703121204</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -546,59 +543,59 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>11415989.313363999</v>
+        <v>15371480.1982641</v>
       </c>
       <c r="C5" s="6">
-        <v>11522140.8060789</v>
+        <v>13762906.935215</v>
       </c>
       <c r="D5" s="6">
-        <v>12048163.519382499</v>
+        <v>13553284.4846249</v>
       </c>
       <c r="E5" s="6">
-        <v>10033973.709583299</v>
+        <v>10691731.834888499</v>
       </c>
       <c r="F5" s="9">
-        <v>9134192.4703121204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9689429.43811417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>15371480.1982641</v>
+        <v>12368632.389307</v>
       </c>
       <c r="C6" s="6">
-        <v>13762906.935215</v>
+        <v>11062995.5747128</v>
       </c>
       <c r="D6" s="6">
-        <v>13553284.4846249</v>
+        <v>11074332.265377</v>
       </c>
       <c r="E6" s="6">
-        <v>10691731.834888499</v>
+        <v>9124285.7894897498</v>
       </c>
       <c r="F6" s="9">
-        <v>9689429.43811417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+        <v>8550649.3041515406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>12368632.389307</v>
+        <v>3002847.8089570999</v>
       </c>
       <c r="C7" s="6">
-        <v>11062995.5747128</v>
+        <v>2699911.3605022398</v>
       </c>
       <c r="D7" s="6">
-        <v>11074332.265377</v>
+        <v>2478952.2192478199</v>
       </c>
       <c r="E7" s="6">
-        <v>9124285.7894897498</v>
+        <v>1567446.0453987101</v>
       </c>
       <c r="F7" s="9">
-        <v>8550649.3041515406</v>
+        <v>1138780.1339626301</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,19 +603,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>3002847.8089570999</v>
+        <v>56169.992685318</v>
       </c>
       <c r="C8" s="6">
-        <v>2699911.3605022398</v>
+        <v>27480.0138473511</v>
       </c>
       <c r="D8" s="6">
-        <v>2478952.2192478199</v>
+        <v>29982.4893474579</v>
       </c>
       <c r="E8" s="6">
-        <v>1567446.0453987101</v>
+        <v>22136.090755462599</v>
       </c>
       <c r="F8" s="9">
-        <v>1138780.1339626301</v>
+        <v>21773.998737335201</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -626,19 +623,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>56169.992685318</v>
+        <v>185360.975861549</v>
       </c>
       <c r="C9" s="6">
-        <v>27480.0138473511</v>
+        <v>4580.0023078918503</v>
       </c>
       <c r="D9" s="6">
-        <v>29982.4893474579</v>
+        <v>83950.970172882095</v>
       </c>
       <c r="E9" s="6">
-        <v>22136.090755462599</v>
+        <v>67462.371826171904</v>
       </c>
       <c r="F9" s="9">
-        <v>21773.998737335201</v>
+        <v>87095.994949340806</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -646,19 +643,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>185360.975861549</v>
+        <v>2873656.8257808699</v>
       </c>
       <c r="C10" s="6">
-        <v>4580.0023078918503</v>
+        <v>2722811.3720416999</v>
       </c>
       <c r="D10" s="6">
-        <v>83950.970172882095</v>
+        <v>2424983.7384223901</v>
       </c>
       <c r="E10" s="6">
-        <v>67462.371826171904</v>
+        <v>1522119.7643279999</v>
       </c>
       <c r="F10" s="9">
-        <v>87095.994949340806</v>
+        <v>1073458.13775063</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,19 +663,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>2873656.8257808699</v>
+        <v>720099.30622577702</v>
       </c>
       <c r="C11" s="6">
-        <v>2722811.3720416999</v>
+        <v>766005.38599491096</v>
       </c>
       <c r="D11" s="6">
-        <v>2424983.7384223901</v>
+        <v>801132.11536407506</v>
       </c>
       <c r="E11" s="6">
-        <v>1522119.7643279999</v>
+        <v>447992.31290817301</v>
       </c>
       <c r="F11" s="9">
-        <v>1073458.13775063</v>
+        <v>376690.17815589899</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -686,19 +683,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>720099.30622577702</v>
+        <v>2153557.51955509</v>
       </c>
       <c r="C12" s="6">
-        <v>766005.38599491096</v>
+        <v>1956805.9860467899</v>
       </c>
       <c r="D12" s="6">
-        <v>801132.11536407506</v>
+        <v>1623851.62305832</v>
       </c>
       <c r="E12" s="6">
-        <v>447992.31290817301</v>
+        <v>1074127.4514198301</v>
       </c>
       <c r="F12" s="9">
-        <v>376690.17815589899</v>
+        <v>696767.95959472703</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -706,58 +703,38 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>2153557.51955509</v>
+        <v>64033.791661262498</v>
       </c>
       <c r="C13" s="6">
-        <v>1956805.9860467899</v>
+        <v>-9160.0046157836896</v>
       </c>
       <c r="D13" s="6">
-        <v>1623851.62305832</v>
+        <v>-308219.99049186701</v>
       </c>
       <c r="E13" s="6">
-        <v>1074127.4514198301</v>
+        <v>-1054.0995597839401</v>
       </c>
       <c r="F13" s="9">
-        <v>696767.95959472703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-6532.1996212005597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>64033.791661262498</v>
+        <v>2217591.3112163502</v>
       </c>
       <c r="C14" s="6">
-        <v>-9160.0046157836896</v>
+        <v>1947645.9814310099</v>
       </c>
       <c r="D14" s="6">
-        <v>-308219.99049186701</v>
+        <v>1315631.6325664499</v>
       </c>
       <c r="E14" s="6">
-        <v>-1054.0995597839401</v>
+        <v>1073073.3518600501</v>
       </c>
       <c r="F14" s="9">
-        <v>-6532.1996212005597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2217591.3112163502</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1947645.9814310099</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1315631.6325664499</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1073073.3518600501</v>
-      </c>
-      <c r="F15" s="9">
         <v>690235.759973526</v>
       </c>
     </row>
